--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KareemMohamed\Desktop\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KareemMohamed\Documents\GitHub\paysky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0831F754-36C0-4879-A72E-49DF38DCBF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BBD88A-1775-4025-82F5-B5FE492DCC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,8 +206,7 @@
     <t>Bug (5)</t>
   </si>
   <si>
-    <t>Note: you can get the Attachments of mentioned Bugs from below link
-ddf</t>
+    <t>Note: you can get the Attachments of mentioned Bugs from the GitHub and Email</t>
   </si>
 </sst>
 </file>
@@ -606,9 +605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
